--- a/hashimoto/xcell_results_deg_GSE138198_HT.xlsx
+++ b/hashimoto/xcell_results_deg_GSE138198_HT.xlsx
@@ -451,52 +451,52 @@
         </is>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.641576909896276E-18</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6.029745898756929E-19</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4.61472111803227E-18</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>8.8205263950943E-19</v>
       </c>
       <c r="G2">
-        <v>1.445117844062575E-18</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.032911567111785E-18</v>
+        <v>4.01608491434724E-19</v>
       </c>
       <c r="I2">
-        <v>2.605875019119694E-20</v>
+        <v>1.664884995233325E-18</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.19192042259581E-20</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.412896959836172E-18</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.932686061184747E-19</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>8.262796787391051E-19</v>
+        <v>4.962632359324541E-19</v>
       </c>
       <c r="O2">
-        <v>0.004347646584444503</v>
+        <v>0.001357782085774556</v>
       </c>
       <c r="P2">
-        <v>0.04140979499948016</v>
+        <v>0.03585131080535069</v>
       </c>
       <c r="Q2">
-        <v>1.607774953685681E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -512,37 +512,37 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>8.365107813508317E-18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.801317457298836E-18</v>
+        <v>1.158664479580871E-18</v>
       </c>
       <c r="G3">
-        <v>3.045326550343047E-18</v>
+        <v>2.481742715385321E-18</v>
       </c>
       <c r="H3">
-        <v>4.239772442030111E-19</v>
+        <v>8.891655515379496E-19</v>
       </c>
       <c r="I3">
-        <v>7.870580847784371E-18</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.965987123239295E-19</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.691135409775855E-19</v>
       </c>
       <c r="M3">
-        <v>1.286483593973008E-19</v>
+        <v>7.843392799132492E-18</v>
       </c>
       <c r="N3">
-        <v>2.564520283242175E-18</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.2489103267620017</v>
+        <v>0.2204868025624328</v>
       </c>
       <c r="C4">
-        <v>0.008152517601220736</v>
+        <v>0.008880075706628982</v>
       </c>
       <c r="D4">
-        <v>0.2044600281144055</v>
+        <v>0.1781743397302916</v>
       </c>
       <c r="E4">
-        <v>6.652739536986333E-19</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7564581349895249</v>
+        <v>0.6717560833945487</v>
       </c>
       <c r="G4">
-        <v>0.04973239482233393</v>
+        <v>0.05038066433975611</v>
       </c>
       <c r="H4">
-        <v>0.09895960581905917</v>
+        <v>0.08546506790697997</v>
       </c>
       <c r="I4">
-        <v>0.4525538904807526</v>
+        <v>0.4003546523792817</v>
       </c>
       <c r="J4">
-        <v>0.8362731375021748</v>
+        <v>0.7449386964398681</v>
       </c>
       <c r="K4">
-        <v>4.939253958693581E-18</v>
+        <v>1.02914401496973E-17</v>
       </c>
       <c r="L4">
-        <v>0.3015262566384282</v>
+        <v>0.2717787357949948</v>
       </c>
       <c r="M4">
-        <v>0.06398269761267365</v>
+        <v>0.06370155063192397</v>
       </c>
       <c r="N4">
-        <v>0.02815507325441025</v>
+        <v>0.02415325005405418</v>
       </c>
       <c r="O4">
-        <v>3.788731939441963E-19</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -616,25 +616,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>8.526191978209113E-19</v>
       </c>
       <c r="C5">
-        <v>7.215949091868212E-18</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4.728376823370766E-18</v>
+        <v>1.552423459922313E-18</v>
       </c>
       <c r="E5">
-        <v>2.267118745864418E-18</v>
+        <v>6.314670151447405E-19</v>
       </c>
       <c r="F5">
-        <v>8.099586391567312E-19</v>
+        <v>8.631587501473229E-18</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.002106370689717417</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.467409865395244E-18</v>
+        <v>8.877627555708466E-18</v>
       </c>
       <c r="L5">
-        <v>9.21807845957442E-18</v>
+        <v>1.036688125761174E-17</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.002579943157469627</v>
       </c>
       <c r="P5">
-        <v>1.00809002817528E-17</v>
+        <v>2.733844874962748E-19</v>
       </c>
       <c r="Q5">
-        <v>0.02257807053024536</v>
+        <v>0.03363887225640782</v>
       </c>
     </row>
     <row r="6">
@@ -671,52 +671,52 @@
         </is>
       </c>
       <c r="B6">
-        <v>6.243965546953827E-19</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.139707048402227E-18</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009345707964684561</v>
+        <v>0.01094847809968537</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0875263757917544</v>
+        <v>0.08663039572768307</v>
       </c>
       <c r="G6">
-        <v>7.649153608525543E-19</v>
+        <v>7.832422455609418E-21</v>
       </c>
       <c r="H6">
-        <v>0.003221906769118495</v>
+        <v>0.003685318487145179</v>
       </c>
       <c r="I6">
-        <v>0.05640386909197865</v>
+        <v>0.05239481134335348</v>
       </c>
       <c r="J6">
-        <v>0.1447300200577992</v>
+        <v>0.1446966774052372</v>
       </c>
       <c r="K6">
-        <v>1.117263925508289E-17</v>
+        <v>3.697879859073998E-18</v>
       </c>
       <c r="L6">
-        <v>0.06879620695227405</v>
+        <v>0.06962392824839783</v>
       </c>
       <c r="M6">
-        <v>1.272289811079697E-18</v>
+        <v>6.511640922894657E-18</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.575942086542124E-18</v>
       </c>
       <c r="O6">
-        <v>1.000977704428353E-18</v>
+        <v>8.956869248263377E-18</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5.283600401396663E-19</v>
+        <v>1.508155069431148E-18</v>
       </c>
     </row>
     <row r="7">
@@ -726,52 +726,52 @@
         </is>
       </c>
       <c r="B7">
-        <v>8.83349867061437E-18</v>
+        <v>1.91099567050988E-18</v>
       </c>
       <c r="C7">
-        <v>3.373827601805526E-18</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.244167637022187E-17</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3.547282536387069E-19</v>
       </c>
       <c r="F7">
-        <v>0.01518415467200615</v>
+        <v>0.02961948354322276</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5.70444924257754E-19</v>
       </c>
       <c r="H7">
-        <v>0.01984359488899601</v>
+        <v>0.01743165806413842</v>
       </c>
       <c r="I7">
-        <v>0.001239086735054243</v>
+        <v>0.01027210515286618</v>
       </c>
       <c r="J7">
-        <v>0.01127919041618732</v>
+        <v>0.03155058803390182</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.008629341884766805</v>
+        <v>0.02074484775852135</v>
       </c>
       <c r="M7">
-        <v>2.422990467207949E-19</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.364804898033046E-18</v>
       </c>
       <c r="O7">
-        <v>6.474320169921352E-18</v>
+        <v>4.216905846914925E-18</v>
       </c>
       <c r="P7">
-        <v>3.618078781461121E-18</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.565244757361074E-19</v>
       </c>
     </row>
     <row r="8">
@@ -781,43 +781,43 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.1203348480868835</v>
+        <v>0.131901603482796</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.007130419269750057</v>
       </c>
       <c r="D8">
-        <v>0.05620688457908646</v>
+        <v>0.08601522854331156</v>
       </c>
       <c r="E8">
-        <v>5.267210742311148E-18</v>
+        <v>1.737021027428496E-19</v>
       </c>
       <c r="F8">
-        <v>0.04461905460089478</v>
+        <v>0.07793110281564622</v>
       </c>
       <c r="G8">
-        <v>0.0651488515507484</v>
+        <v>0.07833028629788827</v>
       </c>
       <c r="H8">
-        <v>0.00833938634076262</v>
+        <v>0.02572667426425193</v>
       </c>
       <c r="I8">
-        <v>0.04986385940721032</v>
+        <v>0.07357116938597663</v>
       </c>
       <c r="J8">
-        <v>0.05211352455926131</v>
+        <v>0.1043325363264989</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.315712579550343E-18</v>
       </c>
       <c r="L8">
-        <v>0.09788628685283834</v>
+        <v>0.1227175445741423</v>
       </c>
       <c r="M8">
-        <v>9.213995335403575E-18</v>
+        <v>6.875605060946729E-18</v>
       </c>
       <c r="N8">
-        <v>5.918052287402052E-20</v>
+        <v>0.004536503795646035</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.003033706852352713</v>
+        <v>0.008673715389468702</v>
       </c>
     </row>
     <row r="9">
@@ -836,49 +836,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.1204297068105947</v>
+        <v>0.0972535046187092</v>
       </c>
       <c r="C9">
-        <v>0.004514980868091748</v>
+        <v>0.002583938768837161</v>
       </c>
       <c r="D9">
-        <v>0.1123144468675727</v>
+        <v>0.09149962772747777</v>
       </c>
       <c r="E9">
-        <v>8.4349113849132E-19</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1761461674580346</v>
+        <v>0.1445687950772572</v>
       </c>
       <c r="G9">
-        <v>0.005015306138073452</v>
+        <v>0.003300433051358634</v>
       </c>
       <c r="H9">
-        <v>0.03038896086845598</v>
+        <v>0.02027098700619413</v>
       </c>
       <c r="I9">
-        <v>0.1375904454468879</v>
+        <v>0.1115417078113419</v>
       </c>
       <c r="J9">
-        <v>0.2800820594512659</v>
+        <v>0.2365967939241879</v>
       </c>
       <c r="K9">
-        <v>1.37460615584011E-19</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1444463698493237</v>
+        <v>0.1206482398176235</v>
       </c>
       <c r="M9">
-        <v>0.003091910686880731</v>
+        <v>7.810689462702608E-05</v>
       </c>
       <c r="N9">
-        <v>0.009971916076471398</v>
+        <v>0.00443259319730928</v>
       </c>
       <c r="O9">
-        <v>6.339099324879424E-19</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.968423130440348E-19</v>
+        <v>3.342843802143066E-18</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -894,49 +894,49 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.472298193233586E-20</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03795767567791907</v>
+        <v>0.03160964358766773</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1991862655462559</v>
+        <v>0.1737402655337579</v>
       </c>
       <c r="G10">
-        <v>4.215120755372051E-18</v>
+        <v>1.817179161932498E-19</v>
       </c>
       <c r="H10">
-        <v>0.02363871921551254</v>
+        <v>0.01814069572824782</v>
       </c>
       <c r="I10">
-        <v>0.0919983003792345</v>
+        <v>0.07447371967684836</v>
       </c>
       <c r="J10">
-        <v>0.27978145375374</v>
+        <v>0.2570410156465714</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.123426137597831E-17</v>
       </c>
       <c r="L10">
-        <v>0.09280894715148599</v>
+        <v>0.08151020708885533</v>
       </c>
       <c r="M10">
-        <v>0.01381006915584031</v>
+        <v>0.01155713563718159</v>
       </c>
       <c r="N10">
-        <v>0.001219280649677611</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>5.571919346403255E-18</v>
+        <v>3.108857015250113E-18</v>
       </c>
       <c r="P10">
-        <v>2.459855399668802E-18</v>
+        <v>3.632998272661628E-18</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.4223303367265E-18</v>
       </c>
     </row>
     <row r="11">
@@ -946,52 +946,52 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.09946349393406484</v>
+        <v>0.09008189507193595</v>
       </c>
       <c r="C11">
-        <v>2.394868112607059E-18</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1145065560923056</v>
+        <v>0.1057209748175859</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1470129728189966</v>
+        <v>0.1276657593440602</v>
       </c>
       <c r="G11">
-        <v>0.04659532418920567</v>
+        <v>0.04229540299980818</v>
       </c>
       <c r="H11">
-        <v>0.06615043647511462</v>
+        <v>0.05834229579306057</v>
       </c>
       <c r="I11">
-        <v>0.09450016851553378</v>
+        <v>0.09428633950055862</v>
       </c>
       <c r="J11">
-        <v>0.2390514543531432</v>
+        <v>0.1990295452205246</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.147757916806998E-18</v>
       </c>
       <c r="L11">
-        <v>0.1607171441382438</v>
+        <v>0.1333923950803035</v>
       </c>
       <c r="M11">
-        <v>0.004809461763729862</v>
+        <v>0.006061104290216264</v>
       </c>
       <c r="N11">
-        <v>0.01186084133336924</v>
+        <v>0.0124566897429181</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.392903263319725E-19</v>
       </c>
       <c r="P11">
-        <v>2.21958656305894E-18</v>
+        <v>2.154298931237449E-18</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1.24617859741612E-18</v>
       </c>
     </row>
     <row r="12">
@@ -1001,46 +1001,46 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.2119270956902418</v>
+        <v>0.1778740604299061</v>
       </c>
       <c r="C12">
-        <v>0.02957298608128632</v>
+        <v>0.02489486951146099</v>
       </c>
       <c r="D12">
-        <v>0.2017704284032492</v>
+        <v>0.1792018812669689</v>
       </c>
       <c r="E12">
-        <v>0.00965269189130896</v>
+        <v>0.006885845295511606</v>
       </c>
       <c r="F12">
-        <v>0.2534894517030326</v>
+        <v>0.2068206177551685</v>
       </c>
       <c r="G12">
-        <v>0.1200835657546961</v>
+        <v>0.09691671073569832</v>
       </c>
       <c r="H12">
-        <v>0.1144807075033544</v>
+        <v>0.09582141249185627</v>
       </c>
       <c r="I12">
-        <v>0.2094134996088883</v>
+        <v>0.1729524523404397</v>
       </c>
       <c r="J12">
-        <v>0.3123316853558769</v>
+        <v>0.2479288249830641</v>
       </c>
       <c r="K12">
-        <v>0.01053973214371661</v>
+        <v>0.01185549645663186</v>
       </c>
       <c r="L12">
-        <v>0.2899629572685987</v>
+        <v>0.2341432776491651</v>
       </c>
       <c r="M12">
-        <v>0.08097381509812487</v>
+        <v>0.07246229400181213</v>
       </c>
       <c r="N12">
-        <v>0.09762560815539303</v>
+        <v>0.08161418620371308</v>
       </c>
       <c r="O12">
-        <v>0.01049760489348935</v>
+        <v>0.008231003688239175</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2.174416426707708E-19</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2.918456485074185E-18</v>
       </c>
       <c r="D13">
-        <v>0.01058103545993475</v>
+        <v>0.007091766128951619</v>
       </c>
       <c r="E13">
-        <v>8.0698793575069E-19</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>2.641079457075496E-18</v>
+        <v>6.866126427257688E-19</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>8.276374605435544E-18</v>
       </c>
       <c r="J13">
-        <v>0.02086727029935605</v>
+        <v>0.02438071577881223</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3.785157795233748E-18</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.164720391159574E-18</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.053669649842152E-18</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1.356183484441105E-18</v>
       </c>
     </row>
     <row r="14">
@@ -1111,49 +1111,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1.45152978160786E-18</v>
+        <v>1.697988587375063E-19</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4.768544592577525E-19</v>
       </c>
       <c r="E14">
-        <v>0.0004761397736498468</v>
+        <v>2.583272812200272E-20</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.613407037536387E-18</v>
       </c>
       <c r="G14">
-        <v>5.864197695894574E-05</v>
+        <v>2.291531657295765E-21</v>
       </c>
       <c r="H14">
-        <v>7.798020730016704E-21</v>
+        <v>1.400582134967908E-19</v>
       </c>
       <c r="I14">
-        <v>3.084845212185349E-18</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.005128892365234933</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>6.198330754839079E-20</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.212742820297505E-18</v>
       </c>
       <c r="M14">
-        <v>2.124381335518014E-19</v>
+        <v>2.640437080984946E-19</v>
       </c>
       <c r="N14">
-        <v>5.053568448173618E-19</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4.833828106031324E-19</v>
       </c>
       <c r="P14">
-        <v>0.001233509999592571</v>
+        <v>6.329791165387833E-20</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1166,52 +1166,52 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.02006060148026686</v>
+        <v>0.01932242753714253</v>
       </c>
       <c r="C15">
-        <v>0.01501621072723567</v>
+        <v>0.01151410412093738</v>
       </c>
       <c r="D15">
-        <v>0.01995411983085735</v>
+        <v>0.01808182124144365</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>7.48822585433408E-20</v>
       </c>
       <c r="G15">
-        <v>0.0004473774013542551</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>6.772788953296111E-20</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.002820388272362228</v>
+        <v>0.001539290721032227</v>
       </c>
       <c r="J15">
-        <v>8.542942909441755E-20</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.003691483050580623</v>
+        <v>0.001659949144345684</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.257630562770052E-19</v>
+        <v>4.253889949567906E-20</v>
       </c>
       <c r="N15">
-        <v>0.007132181614492508</v>
+        <v>0.004878236999413116</v>
       </c>
       <c r="O15">
-        <v>0.001371116595144585</v>
+        <v>0.00015140423420543</v>
       </c>
       <c r="P15">
-        <v>0.005371541700324624</v>
+        <v>0.003790978252163986</v>
       </c>
       <c r="Q15">
-        <v>0.0004672460549109876</v>
+        <v>6.229860664419057E-20</v>
       </c>
     </row>
     <row r="16">
@@ -1221,52 +1221,52 @@
         </is>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3.291877224407142E-19</v>
       </c>
       <c r="C16">
-        <v>0.001379292806898579</v>
+        <v>0.002446837738152618</v>
       </c>
       <c r="D16">
-        <v>3.124704976535536E-19</v>
+        <v>1.802672112390614E-20</v>
       </c>
       <c r="E16">
-        <v>3.61764485215335E-05</v>
+        <v>7.225230849770354E-05</v>
       </c>
       <c r="F16">
-        <v>1.262014065134954E-18</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1.641998039383946E-18</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>4.329673835764806E-20</v>
+        <v>7.988247180017883E-05</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.019052486694556E-19</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6.761120527378691E-20</v>
       </c>
       <c r="L16">
-        <v>3.518490484037148E-19</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.00244927671086034</v>
+        <v>0.003407653455549883</v>
       </c>
       <c r="O16">
-        <v>0.002525584012917108</v>
+        <v>0.00251104094626074</v>
       </c>
       <c r="P16">
-        <v>2.392738210040087E-19</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.003190688105429629</v>
+        <v>0.002538550228714194</v>
       </c>
     </row>
     <row r="17">
@@ -1276,52 +1276,52 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.04810162342492894</v>
+        <v>0.03203084147649888</v>
       </c>
       <c r="C17">
-        <v>0.0238376320117765</v>
+        <v>0.004178265721634203</v>
       </c>
       <c r="D17">
-        <v>0.03512042090196826</v>
+        <v>0.01765646087880334</v>
       </c>
       <c r="E17">
-        <v>2.11422273380445E-19</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01406478215241826</v>
+        <v>0.008477772413551802</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>7.491101030720919E-19</v>
       </c>
       <c r="H17">
-        <v>0.03663594526134339</v>
+        <v>0.03182654707660772</v>
       </c>
       <c r="I17">
-        <v>0.03634343450133937</v>
+        <v>0.01897681198571085</v>
       </c>
       <c r="J17">
-        <v>1.528384356016939E-18</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.0354305374813132</v>
+        <v>0.02376049912263525</v>
       </c>
       <c r="L17">
-        <v>0.03935067052138608</v>
+        <v>0.02214682784117885</v>
       </c>
       <c r="M17">
-        <v>0.03457528146634947</v>
+        <v>0.0291689746766861</v>
       </c>
       <c r="N17">
-        <v>0.03851429624618948</v>
+        <v>0.02254592618399716</v>
       </c>
       <c r="O17">
-        <v>0.07812395673568059</v>
+        <v>0.05255834634947333</v>
       </c>
       <c r="P17">
-        <v>0.08471080957146986</v>
+        <v>0.07002985394384847</v>
       </c>
       <c r="Q17">
-        <v>0.045325210284954</v>
+        <v>0.02577974746816981</v>
       </c>
     </row>
     <row r="18">
@@ -1331,52 +1331,52 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.03351154515066553</v>
+        <v>0.04630930238536162</v>
       </c>
       <c r="C18">
-        <v>5.314673069316949E-19</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03335962586187864</v>
+        <v>0.04267155747448405</v>
       </c>
       <c r="E18">
-        <v>2.568825807223775E-19</v>
+        <v>5.311107493567431E-19</v>
       </c>
       <c r="F18">
-        <v>0.1217505881325912</v>
+        <v>0.1394988838169604</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.01467424796658634</v>
       </c>
       <c r="H18">
-        <v>0.01464572101634188</v>
+        <v>0.02874952835196041</v>
       </c>
       <c r="I18">
-        <v>0.07622892483885152</v>
+        <v>0.08997170479520437</v>
       </c>
       <c r="J18">
-        <v>0.1829608061066092</v>
+        <v>0.2012489489634769</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.04346007975264031</v>
+        <v>0.06824696389338906</v>
       </c>
       <c r="M18">
-        <v>0.01002789697237924</v>
+        <v>0.03004767607060009</v>
       </c>
       <c r="N18">
-        <v>1.434155001047192E-18</v>
+        <v>1.594426704458196E-19</v>
       </c>
       <c r="O18">
-        <v>4.778963266246911E-18</v>
+        <v>4.133630690096411E-18</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>3.952085904444326E-18</v>
       </c>
       <c r="Q18">
-        <v>5.301952187621313E-20</v>
+        <v>2.21359480450946E-19</v>
       </c>
     </row>
     <row r="19">
@@ -1386,52 +1386,52 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.03057448366057748</v>
+        <v>0.03301907506130643</v>
       </c>
       <c r="C19">
-        <v>0.001596055523963957</v>
+        <v>0.003579535370314988</v>
       </c>
       <c r="D19">
-        <v>0.01790093421920994</v>
+        <v>0.01776573800758879</v>
       </c>
       <c r="E19">
-        <v>7.23396209876207E-19</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03926339017378868</v>
+        <v>0.04184365299983817</v>
       </c>
       <c r="G19">
-        <v>0.002123717541715218</v>
+        <v>0.003203788211199429</v>
       </c>
       <c r="H19">
-        <v>0.01127271208930189</v>
+        <v>0.01408773585370316</v>
       </c>
       <c r="I19">
-        <v>0.01620363482593635</v>
+        <v>0.01683827445138564</v>
       </c>
       <c r="J19">
-        <v>0.03035539063073333</v>
+        <v>0.02983404355212703</v>
       </c>
       <c r="K19">
-        <v>2.681434100253519E-20</v>
+        <v>1.65948089091502E-20</v>
       </c>
       <c r="L19">
-        <v>0.02776722775439964</v>
+        <v>0.02700864055124079</v>
       </c>
       <c r="M19">
-        <v>0.009683120809182193</v>
+        <v>0.01138214367929809</v>
       </c>
       <c r="N19">
-        <v>0.00741779397030728</v>
+        <v>0.009430144412681895</v>
       </c>
       <c r="O19">
-        <v>3.685337707899646E-19</v>
+        <v>2.416673144112729E-19</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2.416110747725924E-19</v>
+        <v>1.144759859729163E-19</v>
       </c>
     </row>
     <row r="20">
@@ -1441,52 +1441,52 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.01744305964522814</v>
+        <v>0.01492351191908399</v>
       </c>
       <c r="C20">
-        <v>0.02955589289900994</v>
+        <v>0.02536896669943008</v>
       </c>
       <c r="D20">
-        <v>0.01587293852976029</v>
+        <v>0.01393021175546767</v>
       </c>
       <c r="E20">
-        <v>0.05986280981059155</v>
+        <v>0.05122315969158741</v>
       </c>
       <c r="F20">
-        <v>0.009762185057777237</v>
+        <v>0.008135243389738213</v>
       </c>
       <c r="G20">
-        <v>0.02120006978784853</v>
+        <v>0.0180644009283602</v>
       </c>
       <c r="H20">
-        <v>0.02781333132985705</v>
+        <v>0.02352832003098675</v>
       </c>
       <c r="I20">
-        <v>0.01419701855042314</v>
+        <v>0.01122139456010476</v>
       </c>
       <c r="J20">
-        <v>2.962077341009371E-19</v>
+        <v>1.619197886710003E-20</v>
       </c>
       <c r="K20">
-        <v>0.03991636833337434</v>
+        <v>0.03522572547313095</v>
       </c>
       <c r="L20">
-        <v>0.02495001065472167</v>
+        <v>0.02171058726808005</v>
       </c>
       <c r="M20">
-        <v>0.05649197068534399</v>
+        <v>0.0501994732037612</v>
       </c>
       <c r="N20">
-        <v>0.03238316297017308</v>
+        <v>0.02842623857329112</v>
       </c>
       <c r="O20">
-        <v>0.07969591991702138</v>
+        <v>0.06838191055031639</v>
       </c>
       <c r="P20">
-        <v>0.106236780741174</v>
+        <v>0.08951073799319195</v>
       </c>
       <c r="Q20">
-        <v>0.04776192388346444</v>
+        <v>0.04095619447472043</v>
       </c>
     </row>
     <row r="21">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>2.351763156019997E-19</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1.818956908619631E-19</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1508,31 +1508,31 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.364423818854429E-18</v>
       </c>
       <c r="G21">
-        <v>1.281720189383491E-18</v>
+        <v>4.113965923810049E-19</v>
       </c>
       <c r="H21">
-        <v>0.002169838855045748</v>
+        <v>0.002805251643520172</v>
       </c>
       <c r="I21">
-        <v>2.473804214633079E-19</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.619917991385221E-19</v>
       </c>
       <c r="K21">
-        <v>1.063294391750794E-17</v>
+        <v>6.527625867985836E-18</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.637146084946222E-18</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.089323532923689E-18</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.247954385407149E-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1551,52 +1551,52 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.06944476660315184</v>
+        <v>0.06307494225005408</v>
       </c>
       <c r="C22">
-        <v>0.04732050097223697</v>
+        <v>0.0415404962441689</v>
       </c>
       <c r="D22">
-        <v>0.02011721796317435</v>
+        <v>0.01820571346506356</v>
       </c>
       <c r="E22">
-        <v>0.04155693040240154</v>
+        <v>0.03680734532862912</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.04565091568038838</v>
+        <v>0.03938095735064094</v>
       </c>
       <c r="H22">
-        <v>0.02897771267131025</v>
+        <v>0.02454710933964187</v>
       </c>
       <c r="I22">
-        <v>0.003522504733937195</v>
+        <v>0.003574635414577935</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.04592977129408115</v>
+        <v>0.04057399804234246</v>
       </c>
       <c r="L22">
-        <v>0.01202138652317308</v>
+        <v>0.01001627626295511</v>
       </c>
       <c r="M22">
-        <v>0.03733097276046388</v>
+        <v>0.0322789913835928</v>
       </c>
       <c r="N22">
-        <v>0.02356287117779591</v>
+        <v>0.0223767928661254</v>
       </c>
       <c r="O22">
-        <v>0.04327236016557156</v>
+        <v>0.03887223219768481</v>
       </c>
       <c r="P22">
-        <v>0.007941363896273522</v>
+        <v>0.007469713690949368</v>
       </c>
       <c r="Q22">
-        <v>0.05625745123336462</v>
+        <v>0.04962343869738039</v>
       </c>
     </row>
     <row r="23">
@@ -1615,43 +1615,43 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>4.404334285379721E-20</v>
       </c>
       <c r="F23">
-        <v>6.888567027385256E-19</v>
+        <v>1.025453968123266E-19</v>
       </c>
       <c r="G23">
-        <v>3.058722533034609E-19</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.121377285400197E-20</v>
+        <v>3.535763917175745E-21</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.702851329818868E-19</v>
       </c>
       <c r="K23">
-        <v>2.827691711731435E-20</v>
+        <v>3.088795851182931E-20</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2.880783363175229E-19</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.743770779749066E-20</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.074694504511475E-19</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>4.791843691614752E-19</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>3.042973294253587E-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1667,46 +1667,46 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.187405018113312E-18</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1.345094762808841E-17</v>
+        <v>9.736223242696876E-18</v>
       </c>
       <c r="F24">
-        <v>4.518931260238647E-18</v>
+        <v>1.113690452572524E-18</v>
       </c>
       <c r="G24">
-        <v>3.952608510228027E-18</v>
+        <v>8.732216441400143E-18</v>
       </c>
       <c r="H24">
-        <v>0.07493277940864924</v>
+        <v>0.06299843937329046</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.101073868841833E-19</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.001852189995118978</v>
+        <v>3.109374924293266E-19</v>
       </c>
       <c r="L24">
-        <v>0.01035391958012773</v>
+        <v>0.01667992167969673</v>
       </c>
       <c r="M24">
-        <v>0.01079219821155713</v>
+        <v>0.01455955011200274</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.1042634927554519</v>
+        <v>0.09573711416726319</v>
       </c>
       <c r="P24">
-        <v>0.01714503728666674</v>
+        <v>0.02478756930234441</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>9.197508352240652E-18</v>
       </c>
     </row>
     <row r="25">
@@ -1716,49 +1716,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.003024529930932146</v>
+        <v>0.0009068986391572261</v>
       </c>
       <c r="C25">
-        <v>0.005709588489640433</v>
+        <v>0.002891559691775842</v>
       </c>
       <c r="D25">
-        <v>0.005215581727667799</v>
+        <v>0.0005157909830865817</v>
       </c>
       <c r="E25">
-        <v>2.591142052001338E-18</v>
+        <v>7.395596596194698E-18</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3.430758614169326E-18</v>
       </c>
       <c r="H25">
-        <v>0.01132545711216525</v>
+        <v>0.009607579113182144</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.910285047850592E-19</v>
       </c>
       <c r="J25">
-        <v>2.772408602174402E-18</v>
+        <v>3.371301906897361E-18</v>
       </c>
       <c r="K25">
-        <v>6.662955619254376E-19</v>
+        <v>2.649149367963809E-19</v>
       </c>
       <c r="L25">
-        <v>1.205184751848102E-18</v>
+        <v>4.402576558595664E-18</v>
       </c>
       <c r="M25">
-        <v>2.852116436319136E-19</v>
+        <v>4.844179736510373E-19</v>
       </c>
       <c r="N25">
-        <v>0.006859153777937043</v>
+        <v>0.004220851792173054</v>
       </c>
       <c r="O25">
-        <v>1.454852960529696E-19</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>2.095746161434637E-19</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -1771,52 +1771,52 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.08753515729490546</v>
+        <v>0.0805032275595533</v>
       </c>
       <c r="C26">
-        <v>0.1590063671036237</v>
+        <v>0.1548454537336417</v>
       </c>
       <c r="D26">
-        <v>0.2257041546378132</v>
+        <v>0.2085385993272705</v>
       </c>
       <c r="E26">
-        <v>0.09295108660113525</v>
+        <v>0.0915580761430612</v>
       </c>
       <c r="F26">
-        <v>0.05005568000079878</v>
+        <v>0.0450853007412935</v>
       </c>
       <c r="G26">
-        <v>0.03366473589587801</v>
+        <v>0.03156810104735617</v>
       </c>
       <c r="H26">
-        <v>0.2762952694915748</v>
+        <v>0.2684378984553311</v>
       </c>
       <c r="I26">
-        <v>0.1172286696301737</v>
+        <v>0.1133223550166153</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.167865843960384E-18</v>
       </c>
       <c r="K26">
-        <v>0.2399019160588678</v>
+        <v>0.226637999773315</v>
       </c>
       <c r="L26">
-        <v>0.101324820190663</v>
+        <v>0.09480707324221263</v>
       </c>
       <c r="M26">
-        <v>0.2715584535070404</v>
+        <v>0.2562646568933235</v>
       </c>
       <c r="N26">
-        <v>0.3981772947825771</v>
+        <v>0.3859501048727038</v>
       </c>
       <c r="O26">
-        <v>0.2979330884738092</v>
+        <v>0.2831821185759106</v>
       </c>
       <c r="P26">
-        <v>0.2161509241659639</v>
+        <v>0.1993204822105231</v>
       </c>
       <c r="Q26">
-        <v>0.05605578232861385</v>
+        <v>0.05174236885463964</v>
       </c>
     </row>
     <row r="27">
@@ -1829,49 +1829,49 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1.076172174745743E-18</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3.181482824665946E-18</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.085420250097331E-18</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>6.539127718231247E-19</v>
       </c>
       <c r="I27">
-        <v>1.644050895572725E-18</v>
+        <v>7.197443372406063E-19</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>7.731695030409449E-19</v>
       </c>
       <c r="L27">
-        <v>8.29314914898286E-19</v>
+        <v>4.865493465914619E-19</v>
       </c>
       <c r="M27">
-        <v>1.340462281977479E-18</v>
+        <v>5.069525705437408E-18</v>
       </c>
       <c r="N27">
-        <v>8.726420277609899E-18</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>0.001620636017882414</v>
+        <v>0.004301432175833372</v>
       </c>
       <c r="P27">
-        <v>5.418139937328995E-18</v>
+        <v>7.113931876364044E-18</v>
       </c>
       <c r="Q27">
-        <v>4.071994140926407E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1881,52 +1881,52 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.0423604134611615</v>
+        <v>0.03708601008399525</v>
       </c>
       <c r="C28">
-        <v>0.003201071806926107</v>
+        <v>0.003044626504447963</v>
       </c>
       <c r="D28">
-        <v>0.00108618885208154</v>
+        <v>0.00102333915734883</v>
       </c>
       <c r="E28">
-        <v>0.004641562675765918</v>
+        <v>0.004334977233215795</v>
       </c>
       <c r="F28">
-        <v>7.963498195114432E-20</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.003251682619614542</v>
+        <v>0.002930501205761085</v>
       </c>
       <c r="H28">
-        <v>0.001685130188549994</v>
+        <v>0.001593920858274158</v>
       </c>
       <c r="I28">
-        <v>0.0005128469854675531</v>
+        <v>0.0004917519274544081</v>
       </c>
       <c r="J28">
-        <v>6.301172067901185E-20</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0.007673281083364739</v>
+        <v>0.006947293453110171</v>
       </c>
       <c r="L28">
-        <v>0.0005871985737754866</v>
+        <v>0.0004867575113563331</v>
       </c>
       <c r="M28">
-        <v>0.001967112034557419</v>
+        <v>0.001811629553975209</v>
       </c>
       <c r="N28">
-        <v>0.002333891164927376</v>
+        <v>0.002217250509888497</v>
       </c>
       <c r="O28">
-        <v>0.004230325677249397</v>
+        <v>0.003777535754094711</v>
       </c>
       <c r="P28">
-        <v>0.0004698996749129866</v>
+        <v>0.000342258862568191</v>
       </c>
       <c r="Q28">
-        <v>0.006043149630904235</v>
+        <v>0.005279781283706318</v>
       </c>
     </row>
     <row r="29">
@@ -1936,25 +1936,25 @@
         </is>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>6.732700473623796E-07</v>
       </c>
       <c r="C29">
-        <v>0.01817282158151039</v>
+        <v>0.02482938101946358</v>
       </c>
       <c r="D29">
-        <v>0.01435729488103733</v>
+        <v>0.02094249152437761</v>
       </c>
       <c r="E29">
-        <v>0.01698654424512831</v>
+        <v>0.01914466229840754</v>
       </c>
       <c r="F29">
-        <v>0.0005197931117407672</v>
+        <v>0.0009361998323270289</v>
       </c>
       <c r="G29">
-        <v>0.03204940510016161</v>
+        <v>0.03311066453758652</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2.172438104195742E-05</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1963,25 +1963,25 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0.02441601288506316</v>
+        <v>0.02592932300153479</v>
       </c>
       <c r="L29">
-        <v>6.160890856056072E-19</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0.01275918651388577</v>
+        <v>0.01256398419641987</v>
       </c>
       <c r="N29">
-        <v>0.02051001994072255</v>
+        <v>0.02177298735379875</v>
       </c>
       <c r="O29">
-        <v>0.03633042176802014</v>
+        <v>0.03051749000460421</v>
       </c>
       <c r="P29">
-        <v>0.0276168940118629</v>
+        <v>0.02853607432955512</v>
       </c>
       <c r="Q29">
-        <v>0.03182176950248574</v>
+        <v>0.02700064093347443</v>
       </c>
     </row>
     <row r="30">
@@ -1991,16 +1991,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>8.40155962146961E-18</v>
+        <v>7.156890818751336E-18</v>
       </c>
       <c r="C30">
-        <v>9.943569114649054E-19</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>6.022103427251311E-19</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>6.756264566687804E-18</v>
+        <v>6.480440025353297E-19</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>7.039947084773211E-18</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2030,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1.322996744810355E-17</v>
       </c>
       <c r="P30">
-        <v>3.05077812564363E-19</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>2.39951487780578E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>5.876211859907433E-18</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2.935824724208229E-18</v>
+        <v>4.155008663107094E-18</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>6.536149061590058E-18</v>
+        <v>2.050560206547265E-18</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2070,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.0173322183821249</v>
+        <v>0.004597779899698387</v>
       </c>
       <c r="K31">
-        <v>7.8040085585338E-18</v>
+        <v>2.155812021356906E-17</v>
       </c>
       <c r="L31">
-        <v>5.57059465980833E-19</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>1.184580739930331E-17</v>
+        <v>1.463839503600937E-17</v>
       </c>
       <c r="N31">
-        <v>1.658138928964182E-17</v>
+        <v>3.912793615957669E-18</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -2101,52 +2101,52 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.02248056265201342</v>
+        <v>0.01796654021910536</v>
       </c>
       <c r="C32">
-        <v>0.00784369856651646</v>
+        <v>0.007616127127463175</v>
       </c>
       <c r="D32">
-        <v>0.03136383122261703</v>
+        <v>0.02894275264363827</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.01467403553886727</v>
+        <v>0.0134876838527543</v>
       </c>
       <c r="G32">
-        <v>0.0276701843954855</v>
+        <v>0.02672243599187279</v>
       </c>
       <c r="H32">
-        <v>0.001605667482821041</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.02414508128369895</v>
+        <v>0.01912231181579105</v>
       </c>
       <c r="J32">
-        <v>0.01121716068966497</v>
+        <v>0.01119187483618793</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0.04049547630292069</v>
+        <v>0.03757585525482771</v>
       </c>
       <c r="M32">
-        <v>0.009518441733683047</v>
+        <v>0.0080938969046706</v>
       </c>
       <c r="N32">
-        <v>0.007813925290354462</v>
+        <v>0.006265359886997776</v>
       </c>
       <c r="O32">
-        <v>1.028280350705061E-18</v>
+        <v>3.259926567194885E-18</v>
       </c>
       <c r="P32">
-        <v>5.961704167145703E-18</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1.882627831295456E-18</v>
+        <v>3.590993647336203E-19</v>
       </c>
     </row>
     <row r="33">
@@ -2156,52 +2156,52 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.01785581093216495</v>
+        <v>0.0155112582058575</v>
       </c>
       <c r="C33">
-        <v>0.001413261982528819</v>
+        <v>0.0008341141142008876</v>
       </c>
       <c r="D33">
-        <v>0.01506324261013351</v>
+        <v>0.01285002295606405</v>
       </c>
       <c r="E33">
-        <v>5.249359565366733E-19</v>
+        <v>6.70756188520116E-19</v>
       </c>
       <c r="F33">
-        <v>0.0117371003850819</v>
+        <v>0.01019797800868385</v>
       </c>
       <c r="G33">
-        <v>0.01296160484416267</v>
+        <v>0.01157132585755581</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0.02072948999822108</v>
+        <v>0.01847230201189356</v>
       </c>
       <c r="J33">
-        <v>0.00900353216985471</v>
+        <v>0.008415899650819358</v>
       </c>
       <c r="K33">
-        <v>4.285643007457463E-19</v>
+        <v>1.967516899741906E-19</v>
       </c>
       <c r="L33">
-        <v>0.02632613064135406</v>
+        <v>0.02266322122059465</v>
       </c>
       <c r="M33">
-        <v>0.00458369518849512</v>
+        <v>0.003352001477818741</v>
       </c>
       <c r="N33">
-        <v>1.835180409285866E-20</v>
+        <v>1.0023410995341E-21</v>
       </c>
       <c r="O33">
-        <v>1.439609871884629E-19</v>
+        <v>9.071007596767468E-19</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1.022507025104656E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2211,49 +2211,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.00120597528089669</v>
+        <v>0.001746439946298607</v>
       </c>
       <c r="C34">
-        <v>0.00451422138245552</v>
+        <v>0.005095351625241973</v>
       </c>
       <c r="D34">
-        <v>0.01252698351063864</v>
+        <v>0.01409271527431014</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>6.543917401618668E-20</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1.063619682214338E-19</v>
       </c>
       <c r="G34">
-        <v>0.01024006455276299</v>
+        <v>0.009887208929360019</v>
       </c>
       <c r="H34">
-        <v>0.0004874068126671184</v>
+        <v>0.0002695333993541674</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.0005050395237198467</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>7.820073900332952E-19</v>
       </c>
       <c r="K34">
-        <v>2.830430211265377E-20</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>0.004947620679575998</v>
+        <v>0.00666109562456788</v>
       </c>
       <c r="M34">
-        <v>0.0003129173203207092</v>
+        <v>0.0007801494492447898</v>
       </c>
       <c r="N34">
-        <v>0.005026429668785505</v>
+        <v>0.005153597758502669</v>
       </c>
       <c r="O34">
-        <v>0.001249379703922634</v>
+        <v>0.002090647375078443</v>
       </c>
       <c r="P34">
-        <v>0.003217879958384567</v>
+        <v>0.004350839184855523</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -2266,52 +2266,52 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.01093238971625004</v>
+        <v>0.01256020881869839</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>7.108943058014146E-21</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.02380082294981264</v>
+        <v>0.02253303124235122</v>
       </c>
       <c r="G35">
-        <v>2.150523358996545E-20</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.01275575779879176</v>
+        <v>0.0132878787790139</v>
       </c>
       <c r="J35">
-        <v>0.03450282279427606</v>
+        <v>0.03353524261883274</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>5.746486913319494E-18</v>
       </c>
       <c r="L35">
-        <v>0.002394525087242081</v>
+        <v>0.00230359216086519</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>9.101488501097805E-19</v>
       </c>
       <c r="N35">
-        <v>2.591289993295974E-18</v>
+        <v>4.436173648752299E-18</v>
       </c>
       <c r="O35">
-        <v>1.797158542331267E-19</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>9.276175944113832E-19</v>
+        <v>7.000912986878811E-19</v>
       </c>
       <c r="Q35">
-        <v>0.004677057273839531</v>
+        <v>0.004035070508769294</v>
       </c>
     </row>
     <row r="36">
@@ -2321,52 +2321,52 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.00124924207435659</v>
+        <v>0.001111380519389198</v>
       </c>
       <c r="C36">
-        <v>0.002469039220342799</v>
+        <v>0.002049374465242023</v>
       </c>
       <c r="D36">
-        <v>0.002876178293395174</v>
+        <v>0.002339388489320329</v>
       </c>
       <c r="E36">
-        <v>0.003298940735366595</v>
+        <v>0.002793658440747358</v>
       </c>
       <c r="F36">
-        <v>0.001233119348991904</v>
+        <v>0.001026842057284987</v>
       </c>
       <c r="G36">
-        <v>0.0002247961498833531</v>
+        <v>0.000177430357642833</v>
       </c>
       <c r="H36">
-        <v>0.006833897802996146</v>
+        <v>0.005783218474694579</v>
       </c>
       <c r="I36">
-        <v>0.003661949591587765</v>
+        <v>0.00292260814493675</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0.0007113983451997279</v>
+        <v>0.0005843213772188252</v>
       </c>
       <c r="L36">
-        <v>0.002904617705983055</v>
+        <v>0.00231234446920442</v>
       </c>
       <c r="M36">
-        <v>0.003198908727434226</v>
+        <v>0.002635644762685449</v>
       </c>
       <c r="N36">
-        <v>0.001196172795114418</v>
+        <v>0.0009990010354840369</v>
       </c>
       <c r="O36">
-        <v>0.003715608946233358</v>
+        <v>0.00296329771284299</v>
       </c>
       <c r="P36">
-        <v>0.004190489829671291</v>
+        <v>0.003331401404557346</v>
       </c>
       <c r="Q36">
-        <v>0.001454876109372909</v>
+        <v>0.0009478205195588052</v>
       </c>
     </row>
     <row r="37">
@@ -2376,49 +2376,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1.52694464078042E-20</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>5.366683198998018E-20</v>
+        <v>1.128335195327682E-18</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3.708426775539384E-18</v>
       </c>
       <c r="F37">
-        <v>1.794396322991707E-20</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>3.332631699729794E-18</v>
+        <v>8.078282495155572E-19</v>
       </c>
       <c r="H37">
-        <v>3.355342997946481E-18</v>
+        <v>1.368609004650358E-18</v>
       </c>
       <c r="I37">
-        <v>2.901710224617692E-18</v>
+        <v>5.725556070138818E-19</v>
       </c>
       <c r="J37">
-        <v>0.01205802478725803</v>
+        <v>0.009573280026353602</v>
       </c>
       <c r="K37">
-        <v>2.192548471383596E-19</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0.002339732647005287</v>
+        <v>3.767889023301742E-19</v>
       </c>
       <c r="M37">
-        <v>0.0006527730731408103</v>
+        <v>1.015992914405108E-19</v>
       </c>
       <c r="N37">
-        <v>1.914325805666897E-18</v>
+        <v>1.528661851079614E-18</v>
       </c>
       <c r="O37">
-        <v>4.076820187493718E-18</v>
+        <v>5.160723780844576E-18</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1.313941233224982E-18</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -2431,43 +2431,43 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.04946633814705458</v>
+        <v>0.05576598817358402</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.04896872447389173</v>
+        <v>0.05308705795445324</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1.39095384576061E-18</v>
       </c>
       <c r="F38">
-        <v>0.2075579977864805</v>
+        <v>0.2235638494632468</v>
       </c>
       <c r="G38">
-        <v>0.0004557098512606676</v>
+        <v>0.007594635110452695</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.0002415637058729846</v>
       </c>
       <c r="I38">
-        <v>0.07472830707595939</v>
+        <v>0.08442227144004834</v>
       </c>
       <c r="J38">
-        <v>0.2457128569098058</v>
+        <v>0.2630830713333652</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.204697177668976E-17</v>
       </c>
       <c r="L38">
-        <v>0.05616698328112881</v>
+        <v>0.06668304052687904</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>0.008055271890998875</v>
       </c>
       <c r="N38">
-        <v>2.026629201867815E-17</v>
+        <v>1.446845443116225E-17</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>4.980534562674057E-18</v>
+        <v>1.692646594780105E-18</v>
       </c>
     </row>
     <row r="39">
@@ -2486,52 +2486,52 @@
         </is>
       </c>
       <c r="B39">
-        <v>3.851494796087436E-18</v>
+        <v>2.754646994705776E-21</v>
       </c>
       <c r="C39">
-        <v>3.84756463873744E-19</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>2.651090940973185E-19</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>5.333406446544736E-18</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>5.568503175409812E-19</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.009505251224251537</v>
+        <v>0.0006166409629349733</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>2.849492507940757E-19</v>
+        <v>1.15934007121887E-18</v>
       </c>
       <c r="K39">
-        <v>3.24621425298361E-18</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0.002171998435328785</v>
+        <v>4.382026995613653E-19</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1.409188637268581E-18</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1.306138254968056E-17</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
       <c r="P39">
-        <v>2.461174377098816E-18</v>
+        <v>2.249029811061689E-19</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>8.253712575649866E-18</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.005084665658872305</v>
+        <v>0.0003963713754674242</v>
       </c>
       <c r="C40">
-        <v>1.526815725733679E-18</v>
+        <v>5.892033774856892E-18</v>
       </c>
       <c r="D40">
-        <v>8.656654834450858E-18</v>
+        <v>5.003823536343443E-18</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>7.792016186364125E-18</v>
       </c>
       <c r="F40">
-        <v>0.0007809203546818372</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>3.086424879504251E-19</v>
       </c>
       <c r="H40">
-        <v>0.0008400623316646917</v>
+        <v>1.686257448432665E-19</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2.058839596825676E-18</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>5.310888906758851E-21</v>
       </c>
       <c r="K40">
-        <v>1.679336430059942E-17</v>
+        <v>2.475515511678738E-17</v>
       </c>
       <c r="L40">
-        <v>0.001852327728958072</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>6.7881344161238E-18</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -2596,52 +2596,52 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.002901629734149238</v>
+        <v>0.002548170187507476</v>
       </c>
       <c r="C41">
-        <v>0.007128343918787836</v>
+        <v>0.006402703513914663</v>
       </c>
       <c r="D41">
-        <v>0.001205133112513887</v>
+        <v>0.001164053561139478</v>
       </c>
       <c r="E41">
-        <v>0.004113935884290996</v>
+        <v>0.003534858428972912</v>
       </c>
       <c r="F41">
-        <v>1.110375716803138E-18</v>
+        <v>1.388554144124029E-18</v>
       </c>
       <c r="G41">
-        <v>0.002420346195245219</v>
+        <v>0.001794389184290647</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0.0008701821730087236</v>
+        <v>0.0003102880576823046</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0.008376174348011528</v>
+        <v>0.007645061403070169</v>
       </c>
       <c r="L41">
-        <v>3.922178065825024E-19</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>3.126800811830403E-19</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>0.007420673025900224</v>
+        <v>0.006849356401820187</v>
       </c>
       <c r="O41">
-        <v>0.1107560980813244</v>
+        <v>0.09352176339482718</v>
       </c>
       <c r="P41">
-        <v>0.2484458631157736</v>
+        <v>0.2165726992088411</v>
       </c>
       <c r="Q41">
-        <v>0.04816712899508556</v>
+        <v>0.0415809568901719</v>
       </c>
     </row>
     <row r="42">
@@ -2651,10 +2651,10 @@
         </is>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>3.547889145251979E-18</v>
       </c>
       <c r="C42">
-        <v>3.946982370100004E-18</v>
+        <v>3.368752660727496E-18</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2663,40 +2663,40 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1.661542502423275E-18</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>5.464910590578861E-19</v>
+        <v>1.741573142652225E-18</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1.743362783074136E-18</v>
+        <v>2.131595202100859E-18</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>8.314440617187865E-19</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>7.870126397753229E-18</v>
+        <v>7.06267426875022E-18</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>6.06662266520182E-18</v>
       </c>
       <c r="O42">
-        <v>6.210448110269299E-18</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>2.970251939854825E-18</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>9.491205657562821E-18</v>
       </c>
     </row>
     <row r="43">
@@ -2706,52 +2706,52 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.01391906938495081</v>
+        <v>0.007271910747972479</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.0007372458407138611</v>
       </c>
       <c r="D43">
-        <v>2.419861495553981E-18</v>
+        <v>1.126643854954218E-18</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1.843946567988969E-18</v>
       </c>
       <c r="F43">
-        <v>0.01401129699682295</v>
+        <v>0.006864011426937858</v>
       </c>
       <c r="G43">
-        <v>3.654008835993897E-23</v>
+        <v>4.719003103263784E-20</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1.865975497885538E-22</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0.04557999819680667</v>
+        <v>0.02947503807441371</v>
       </c>
       <c r="K43">
-        <v>5.479392512877521E-18</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1.308540387282499E-19</v>
+        <v>1.035899234561401E-18</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1.414207614397114E-17</v>
+        <v>4.150460975682404E-18</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>1.173402045960194E-18</v>
+        <v>0.007740566056077999</v>
       </c>
       <c r="Q43">
-        <v>7.25308704722438E-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2761,52 +2761,52 @@
         </is>
       </c>
       <c r="B44">
-        <v>2.21432712797076E-06</v>
+        <v>1.895581954092667E-05</v>
       </c>
       <c r="C44">
-        <v>0.002241518891446824</v>
+        <v>0.001668962792144774</v>
       </c>
       <c r="D44">
-        <v>0.0007362561880993854</v>
+        <v>0.0007113767121420286</v>
       </c>
       <c r="E44">
-        <v>0.002806053974338377</v>
+        <v>0.002264408363128518</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>4.918348882209968E-20</v>
       </c>
       <c r="G44">
-        <v>0.0007164587296579629</v>
+        <v>0.0006689965980638435</v>
       </c>
       <c r="H44">
-        <v>0.001827296297782987</v>
+        <v>0.001539578257425286</v>
       </c>
       <c r="I44">
-        <v>0.0003845676230319537</v>
+        <v>0.0002631064230972035</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>4.073709667017858E-20</v>
       </c>
       <c r="K44">
-        <v>0.004651386553244981</v>
+        <v>0.003887225255170824</v>
       </c>
       <c r="L44">
-        <v>0.0008300914182557878</v>
+        <v>0.0007554659777777577</v>
       </c>
       <c r="M44">
-        <v>0.001641726198666825</v>
+        <v>0.001383046133712535</v>
       </c>
       <c r="N44">
-        <v>0.003596032872836608</v>
+        <v>0.002873663185025752</v>
       </c>
       <c r="O44">
-        <v>0.001477804656653922</v>
+        <v>0.001104687599921285</v>
       </c>
       <c r="P44">
-        <v>0.0007736131571899599</v>
+        <v>0.0006147830400886023</v>
       </c>
       <c r="Q44">
-        <v>0.0009834659272398342</v>
+        <v>0.0005980829533495095</v>
       </c>
     </row>
     <row r="45">
@@ -2819,49 +2819,49 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>2.33335424276751E-18</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>2.769592958739429E-18</v>
+        <v>2.184206055346808E-18</v>
       </c>
       <c r="E45">
-        <v>4.090252327695645E-19</v>
+        <v>6.83830386699765E-20</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.874889453089797E-18</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>3.513871431342142E-19</v>
       </c>
       <c r="H45">
-        <v>2.652800188681582E-21</v>
+        <v>0.002823597594481479</v>
       </c>
       <c r="I45">
-        <v>1.64128117563409E-18</v>
+        <v>8.013506584800616E-19</v>
       </c>
       <c r="J45">
-        <v>1.9813520953242E-18</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>1.420230566876831E-18</v>
+        <v>3.434997025978204E-18</v>
       </c>
       <c r="L45">
-        <v>2.561094773686141E-20</v>
+        <v>2.377234818687083E-18</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>3.265063313730516E-19</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>5.57232434699787E-19</v>
+        <v>3.307478489150305E-19</v>
       </c>
       <c r="Q45">
-        <v>2.905016890273046E-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2871,52 +2871,52 @@
         </is>
       </c>
       <c r="B46">
-        <v>8.039557618983824E-18</v>
+        <v>2.515888624140425E-18</v>
       </c>
       <c r="C46">
-        <v>0.05158656678017188</v>
+        <v>0.04417170974095423</v>
       </c>
       <c r="D46">
-        <v>0.01033419547512628</v>
+        <v>0.008947697378258006</v>
       </c>
       <c r="E46">
-        <v>0.04173699003128533</v>
+        <v>0.03441870990935642</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.0735418086970238</v>
+        <v>0.05903647831946527</v>
       </c>
       <c r="H46">
-        <v>1.170952103900959E-17</v>
+        <v>4.456734835812302E-18</v>
       </c>
       <c r="I46">
-        <v>1.192453871549376E-17</v>
+        <v>1.440380464285294E-17</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>0.0004815638432957841</v>
       </c>
       <c r="K46">
-        <v>0.03227291483718588</v>
+        <v>0.03108550878367804</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>6.982162158848951E-18</v>
       </c>
       <c r="M46">
-        <v>7.421407443435402E-21</v>
+        <v>0.003454359957337135</v>
       </c>
       <c r="N46">
-        <v>1.304758722958727E-18</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>0.009015477419019818</v>
+        <v>0.0005419001595237903</v>
       </c>
       <c r="P46">
-        <v>0.003207048499894526</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>0.05407641953649512</v>
+        <v>0.04452872661808333</v>
       </c>
     </row>
     <row r="47">
@@ -2926,52 +2926,52 @@
         </is>
       </c>
       <c r="B47">
-        <v>6.03030723867922E-18</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0.04546833100655281</v>
+        <v>0.03621640774087902</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0.05397496080584616</v>
+        <v>0.04430028768554844</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1.236662397043226E-19</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>8.305673852195238E-18</v>
+        <v>8.179409806132702E-18</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>7.215493800510162E-21</v>
+        <v>0.002177106419530135</v>
       </c>
       <c r="K47">
-        <v>3.61840088559197E-17</v>
+        <v>1.058715533571056E-18</v>
       </c>
       <c r="L47">
-        <v>9.596371648301998E-18</v>
+        <v>6.184279922563957E-18</v>
       </c>
       <c r="M47">
-        <v>1.756721501023701E-17</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>0.02229655440696071</v>
+        <v>0.007471661176843536</v>
       </c>
       <c r="P47">
-        <v>1.298897656650479E-17</v>
+        <v>9.280731454816509E-18</v>
       </c>
       <c r="Q47">
-        <v>6.445179586051871E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2981,49 +2981,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.1324808861921573</v>
+        <v>0.1302118111478067</v>
       </c>
       <c r="C48">
-        <v>0.01757052216350391</v>
+        <v>0.01782073571718237</v>
       </c>
       <c r="D48">
-        <v>0.02634232451081989</v>
+        <v>0.02580126006382416</v>
       </c>
       <c r="E48">
-        <v>0.002699919094399103</v>
+        <v>0.002304717247883537</v>
       </c>
       <c r="F48">
-        <v>0.02629448549504183</v>
+        <v>0.02863276889104499</v>
       </c>
       <c r="G48">
-        <v>0.03468022672618969</v>
+        <v>0.02774337441785661</v>
       </c>
       <c r="H48">
-        <v>0.0003214000187373722</v>
+        <v>0.001044867731819327</v>
       </c>
       <c r="I48">
-        <v>0.09003834933551591</v>
+        <v>0.08829417947200764</v>
       </c>
       <c r="J48">
-        <v>0.02863238253482568</v>
+        <v>0.02912032891509977</v>
       </c>
       <c r="K48">
-        <v>7.072449184157777E-20</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0.006648212037353293</v>
+        <v>0.007054712362616993</v>
       </c>
       <c r="M48">
-        <v>0.001596123858204853</v>
+        <v>0.001902837773228269</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>7.918100277111843E-18</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>1.354607614031628E-18</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="B49">
-        <v>1.296246846056213E-17</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>7.876815519470194E-20</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3048,40 +3048,40 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>4.217957624144984E-18</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>5.114658006383009E-19</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>2.085601133340454E-18</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1.935166054194126E-18</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>9.592396902091444E-18</v>
+        <v>9.603370485505831E-18</v>
       </c>
       <c r="L49">
-        <v>4.097368683711997E-18</v>
+        <v>1.998808845942586E-18</v>
       </c>
       <c r="M49">
-        <v>2.3469509936759E-18</v>
+        <v>5.373237483017179E-19</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>6.763652339513262E-20</v>
       </c>
       <c r="O49">
-        <v>1.601334406464083E-17</v>
+        <v>2.256560761856978E-18</v>
       </c>
       <c r="P49">
-        <v>9.459400763099403E-18</v>
+        <v>2.8052674643123E-18</v>
       </c>
       <c r="Q49">
-        <v>4.67813484107587E-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3091,52 +3091,52 @@
         </is>
       </c>
       <c r="B50">
-        <v>2.472444849733482E-20</v>
+        <v>0.01562181020898604</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.005431302552073739</v>
       </c>
       <c r="D50">
-        <v>1.411776694415006E-18</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>3.041474592657565E-18</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.119391099316035E-18</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1.359830956916119E-18</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>0.02856702751627956</v>
       </c>
       <c r="I50">
-        <v>0.008127927338376415</v>
+        <v>0.02773790768136965</v>
       </c>
       <c r="J50">
-        <v>9.35002170514913E-18</v>
+        <v>1.848768239984874E-18</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1.461326621610177E-17</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>0.008497813491316352</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>0.0007535739529607639</v>
       </c>
       <c r="N50">
-        <v>1.986555818447963E-17</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.02269392550304096</v>
       </c>
       <c r="P50">
-        <v>1.216629121112513E-17</v>
+        <v>0.031780574361144</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>0.039862354171664</v>
       </c>
     </row>
     <row r="51">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.005256499674300995</v>
+        <v>0.003354209018287399</v>
       </c>
       <c r="C51">
-        <v>0.002502401929486042</v>
+        <v>0.001875849151284193</v>
       </c>
       <c r="D51">
-        <v>0.0001559129932716151</v>
+        <v>4.019698904926759E-05</v>
       </c>
       <c r="E51">
-        <v>0.0006644171955197543</v>
+        <v>0.000370012100825661</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3164,34 +3164,34 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0.0003645716191082912</v>
+        <v>0.0001914104403817266</v>
       </c>
       <c r="I51">
-        <v>0.0001601004997831074</v>
+        <v>4.543154354284747E-05</v>
       </c>
       <c r="J51">
-        <v>3.902389502923636E-20</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0.001646273654431827</v>
+        <v>0.001104520437136454</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0.0008828163802539466</v>
+        <v>0.0005877124221132308</v>
       </c>
       <c r="N51">
-        <v>0.000671335936789801</v>
+        <v>0.000398588716185502</v>
       </c>
       <c r="O51">
-        <v>0.001053774996819122</v>
+        <v>0.0006346483195760132</v>
       </c>
       <c r="P51">
-        <v>0.0005199189735862162</v>
+        <v>0.0003203350350611297</v>
       </c>
       <c r="Q51">
-        <v>0.001482705219233509</v>
+        <v>0.001021949156024117</v>
       </c>
     </row>
     <row r="52">
@@ -3201,52 +3201,52 @@
         </is>
       </c>
       <c r="B52">
-        <v>1.131260456405877E-17</v>
+        <v>6.184473229755043E-19</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1.100018365907704E-17</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>7.88233178688018E-19</v>
       </c>
       <c r="F52">
-        <v>2.647172894286927E-18</v>
+        <v>1.595795358934713E-18</v>
       </c>
       <c r="G52">
-        <v>4.395646806586689E-19</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>8.278477054975388E-19</v>
       </c>
       <c r="I52">
-        <v>3.343301882407259E-18</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>3.516970902329403E-18</v>
       </c>
       <c r="L52">
-        <v>3.18520225280324E-19</v>
+        <v>4.871372365665412E-18</v>
       </c>
       <c r="M52">
-        <v>4.56579736236924E-18</v>
+        <v>3.152058592846249E-20</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0.06205992289619729</v>
+        <v>0.03414843358166186</v>
       </c>
       <c r="P52">
-        <v>0.2904699122815926</v>
+        <v>0.2111003908685579</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>3.606302366904132E-18</v>
       </c>
     </row>
     <row r="53">
@@ -3256,52 +3256,52 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.18566378061426</v>
+        <v>0.1641357897916294</v>
       </c>
       <c r="C53">
-        <v>0.334049809564624</v>
+        <v>0.3034968428224788</v>
       </c>
       <c r="D53">
-        <v>0.3004341613069777</v>
+        <v>0.2700111277353632</v>
       </c>
       <c r="E53">
-        <v>0.3677518616567179</v>
+        <v>0.3336175931704647</v>
       </c>
       <c r="F53">
-        <v>0.1383137034922848</v>
+        <v>0.1318368179998549</v>
       </c>
       <c r="G53">
-        <v>0.3711016829314983</v>
+        <v>0.3304275917359943</v>
       </c>
       <c r="H53">
-        <v>0.3213986106708849</v>
+        <v>0.2917974566563564</v>
       </c>
       <c r="I53">
-        <v>0.2599801908372874</v>
+        <v>0.2489023409932851</v>
       </c>
       <c r="J53">
-        <v>3.157224321106581E-19</v>
+        <v>6.260489241805683E-19</v>
       </c>
       <c r="K53">
-        <v>0.505565981115489</v>
+        <v>0.4618599316523183</v>
       </c>
       <c r="L53">
-        <v>0.2434122557928655</v>
+        <v>0.2257080734496613</v>
       </c>
       <c r="M53">
-        <v>0.3954139923564426</v>
+        <v>0.3589353591127905</v>
       </c>
       <c r="N53">
-        <v>0.417216267349474</v>
+        <v>0.3797189472283008</v>
       </c>
       <c r="O53">
-        <v>0.2988507924118903</v>
+        <v>0.2945833345638026</v>
       </c>
       <c r="P53">
-        <v>0.2438715730928565</v>
+        <v>0.2326153678260283</v>
       </c>
       <c r="Q53">
-        <v>0.348146853198323</v>
+        <v>0.3131017422988028</v>
       </c>
     </row>
     <row r="54">
@@ -3311,52 +3311,52 @@
         </is>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>2.61000248027115E-18</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1.643456403664091E-18</v>
       </c>
       <c r="D54">
-        <v>5.239222274668601E-18</v>
+        <v>1.922261270395801E-17</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.05151225229431453</v>
+        <v>0.04031526855707544</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>6.731413029990056E-19</v>
       </c>
       <c r="H54">
-        <v>4.020441638356963E-20</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0.01060121272693885</v>
+        <v>0.01088672961537904</v>
       </c>
       <c r="J54">
-        <v>0.05310941877377671</v>
+        <v>0.03935798683296833</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0.01329315122788088</v>
+        <v>0.01057353758491559</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>3.787383167756325E-18</v>
       </c>
       <c r="N54">
-        <v>5.187197300194336E-20</v>
+        <v>8.310242526170705E-19</v>
       </c>
       <c r="O54">
-        <v>4.796363781059818E-18</v>
+        <v>0</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>2.751741231067226E-19</v>
       </c>
     </row>
     <row r="55">
@@ -3366,52 +3366,52 @@
         </is>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>2.539551489153405E-18</v>
       </c>
       <c r="C55">
-        <v>0.01414412863722548</v>
+        <v>0.01103423074842178</v>
       </c>
       <c r="D55">
-        <v>1.799700602750672E-17</v>
+        <v>1.439813620467393E-17</v>
       </c>
       <c r="E55">
-        <v>0.0199339790774736</v>
+        <v>0.01580441351917914</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0.03165888949029057</v>
+        <v>0.0269212865799844</v>
       </c>
       <c r="H55">
-        <v>9.607507949053409E-19</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>5.541691009671923E-18</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0.01481985211463679</v>
+        <v>0.01245013174650297</v>
       </c>
       <c r="L55">
-        <v>3.628517499251142E-18</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>0.01629509646861944</v>
+        <v>0.01315706534443638</v>
       </c>
       <c r="N55">
-        <v>4.45282517651172E-20</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>0.000394588097584086</v>
+        <v>0</v>
       </c>
       <c r="P55">
-        <v>0.01290564003993908</v>
+        <v>0.011607875305585</v>
       </c>
       <c r="Q55">
-        <v>0.03033548138930521</v>
+        <v>0.02598475348523533</v>
       </c>
     </row>
     <row r="56">
@@ -3421,52 +3421,52 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.07543758274246161</v>
+        <v>0.06225918659823847</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0.1147079179002329</v>
+        <v>0.09766930550635601</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.02616060895145501</v>
+        <v>0.009216824111129141</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>5.068747472956169E-19</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0.02210136049169721</v>
+        <v>0.004397971816832301</v>
       </c>
       <c r="J56">
-        <v>0.05983916672315015</v>
+        <v>0.04412636933820441</v>
       </c>
       <c r="K56">
-        <v>2.323442367365114E-18</v>
+        <v>2.87827372845664E-19</v>
       </c>
       <c r="L56">
-        <v>0.01215109303227713</v>
+        <v>0.003870424706293344</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>3.211170946122861E-19</v>
       </c>
       <c r="N56">
-        <v>0.0003224087362303472</v>
+        <v>4.875475283940426E-20</v>
       </c>
       <c r="O56">
-        <v>0.0117080164990507</v>
+        <v>0.01524945260591465</v>
       </c>
       <c r="P56">
-        <v>4.199435399977444E-18</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>0.0025647265137092</v>
+        <v>0.002169750137135884</v>
       </c>
     </row>
     <row r="57">
@@ -3479,46 +3479,46 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.01749044005981142</v>
+        <v>0.02003515622229766</v>
       </c>
       <c r="D57">
-        <v>0.03220664421894162</v>
+        <v>0.03246418384089954</v>
       </c>
       <c r="E57">
-        <v>1.154138815334949E-19</v>
+        <v>0.000566701902828706</v>
       </c>
       <c r="F57">
-        <v>0.01654428930101321</v>
+        <v>0.01470253218357703</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>2.102657828453631E-22</v>
       </c>
       <c r="H57">
-        <v>0.01989098479482084</v>
+        <v>0.02043277323232655</v>
       </c>
       <c r="I57">
-        <v>0.06037715949828494</v>
+        <v>0.0516663479851374</v>
       </c>
       <c r="J57">
-        <v>0.05799525658050493</v>
+        <v>0.04090107779250964</v>
       </c>
       <c r="K57">
-        <v>2.151223036459977E-18</v>
+        <v>4.114459341505687E-18</v>
       </c>
       <c r="L57">
-        <v>0.07143468124126467</v>
+        <v>0.0620165891351142</v>
       </c>
       <c r="M57">
-        <v>0.000187590228822076</v>
+        <v>0.005882220636263583</v>
       </c>
       <c r="N57">
-        <v>8.441807754773849E-21</v>
+        <v>0.001704436382869593</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>7.749071147872598E-19</v>
       </c>
       <c r="P57">
-        <v>3.238331819235681E-18</v>
+        <v>3.592092931126349E-18</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -3531,52 +3531,52 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.2560449616759013</v>
+        <v>0.2732031541068054</v>
       </c>
       <c r="C58">
-        <v>0.05638611188311087</v>
+        <v>0.05456323581151602</v>
       </c>
       <c r="D58">
-        <v>0.2994912486641795</v>
+        <v>0.2627235990661815</v>
       </c>
       <c r="E58">
-        <v>0.002170326154715985</v>
+        <v>0.007344133872792504</v>
       </c>
       <c r="F58">
-        <v>0.2268239695780143</v>
+        <v>0.2572370439770275</v>
       </c>
       <c r="G58">
-        <v>0.07821439576741261</v>
+        <v>0.07185768349107566</v>
       </c>
       <c r="H58">
-        <v>0.1954493291551228</v>
+        <v>0.2141779460831722</v>
       </c>
       <c r="I58">
-        <v>0.2576218164413917</v>
+        <v>0.2244187162809403</v>
       </c>
       <c r="J58">
-        <v>0.2547846304352038</v>
+        <v>0.2442084164100662</v>
       </c>
       <c r="K58">
-        <v>0.003988595077334351</v>
+        <v>0.01607413350690181</v>
       </c>
       <c r="L58">
-        <v>0.2372405695700869</v>
+        <v>0.2196163124131418</v>
       </c>
       <c r="M58">
-        <v>0.1259584460245861</v>
+        <v>0.1169850467085855</v>
       </c>
       <c r="N58">
-        <v>0.09967386723707534</v>
+        <v>0.09806733780235474</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
       <c r="P58">
-        <v>2.134329691915928E-17</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>1.431418402712717E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3586,52 +3586,52 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.1142784418204457</v>
+        <v>0.1112416535232649</v>
       </c>
       <c r="C59">
-        <v>0.009714533088764563</v>
+        <v>0.01017774892664572</v>
       </c>
       <c r="D59">
-        <v>0.02076157909998049</v>
+        <v>0.02214363745176181</v>
       </c>
       <c r="E59">
-        <v>0.007529152293478187</v>
+        <v>0.0074516162788292</v>
       </c>
       <c r="F59">
-        <v>0.2016958640744956</v>
+        <v>0.1974541327765569</v>
       </c>
       <c r="G59">
-        <v>0.004538355597178049</v>
+        <v>0.005305875441861633</v>
       </c>
       <c r="H59">
-        <v>0.04307139917496777</v>
+        <v>0.04404545807068669</v>
       </c>
       <c r="I59">
-        <v>0.06177570069049417</v>
+        <v>0.06248588728797032</v>
       </c>
       <c r="J59">
-        <v>0.1013297312155713</v>
+        <v>0.104768802443539</v>
       </c>
       <c r="K59">
-        <v>0.004504615220999528</v>
+        <v>0.004306710244383582</v>
       </c>
       <c r="L59">
-        <v>0.091784105415155</v>
+        <v>0.09018947658704157</v>
       </c>
       <c r="M59">
-        <v>0.05456511931128984</v>
+        <v>0.05410262123964559</v>
       </c>
       <c r="N59">
-        <v>0.02643008384279318</v>
+        <v>0.0260577354186454</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1.146379592312439E-19</v>
       </c>
       <c r="P59">
-        <v>3.146877758498398E-20</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>0.0004788300028091247</v>
+        <v>0.0001580973597009755</v>
       </c>
     </row>
     <row r="60">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B60">
-        <v>1.594288728708025E-17</v>
+        <v>1.780743106734966E-17</v>
       </c>
       <c r="C60">
-        <v>0.01266181941308924</v>
+        <v>0.01129222836863044</v>
       </c>
       <c r="D60">
-        <v>0.0569499699543355</v>
+        <v>0.03965099211014558</v>
       </c>
       <c r="E60">
-        <v>0.007932111856701783</v>
+        <v>0.006141108234933189</v>
       </c>
       <c r="F60">
-        <v>0.1488540655498731</v>
+        <v>0.09852899560543169</v>
       </c>
       <c r="G60">
-        <v>0.05746356971566975</v>
+        <v>0.04623727610685437</v>
       </c>
       <c r="H60">
-        <v>0.009821339885658888</v>
+        <v>4.703997809153292E-18</v>
       </c>
       <c r="I60">
-        <v>3.746282505721442E-18</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0.07552439168991189</v>
+        <v>0.02610996719133903</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>8.062401109014531E-19</v>
       </c>
       <c r="L60">
-        <v>0.1129771686906008</v>
+        <v>0.08140282008843473</v>
       </c>
       <c r="M60">
-        <v>0.05771719625442225</v>
+        <v>0.04809389861895851</v>
       </c>
       <c r="N60">
-        <v>0.04569343816169503</v>
+        <v>0.02375504658094606</v>
       </c>
       <c r="O60">
-        <v>0.0009373317033894916</v>
+        <v>0.002124904941560386</v>
       </c>
       <c r="P60">
-        <v>0.004278723585553393</v>
+        <v>0.0045006785362805</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>5.517204251919473E-05</v>
       </c>
     </row>
     <row r="61">
@@ -3696,52 +3696,52 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.0004307598700071504</v>
+        <v>4.035502613564535E-05</v>
       </c>
       <c r="C61">
-        <v>0.006393705321934517</v>
+        <v>0.004722170843010471</v>
       </c>
       <c r="D61">
-        <v>0.001591447394006868</v>
+        <v>0.0008709638702216088</v>
       </c>
       <c r="E61">
-        <v>0.01984564621213144</v>
+        <v>0.0155320031666893</v>
       </c>
       <c r="F61">
-        <v>0.0003490559014201491</v>
+        <v>0.0001239036103651318</v>
       </c>
       <c r="G61">
-        <v>0.001092273267451375</v>
+        <v>0.0004289690564884915</v>
       </c>
       <c r="H61">
-        <v>0.01506594187455096</v>
+        <v>0.01123826642343994</v>
       </c>
       <c r="I61">
-        <v>8.013757187544572E-20</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>1.475092917045326E-20</v>
+        <v>3.006260265853984E-20</v>
       </c>
       <c r="K61">
-        <v>0.01112677706695984</v>
+        <v>0.0087023173470465</v>
       </c>
       <c r="L61">
-        <v>0.002479696168645838</v>
+        <v>0.001476504910317878</v>
       </c>
       <c r="M61">
-        <v>0.01345024341939486</v>
+        <v>0.009966597739679391</v>
       </c>
       <c r="N61">
-        <v>0.004151343235313781</v>
+        <v>0.002850476932066545</v>
       </c>
       <c r="O61">
-        <v>0.01945093113181113</v>
+        <v>0.01439823567445796</v>
       </c>
       <c r="P61">
-        <v>0.03882812994149137</v>
+        <v>0.0318092670506634</v>
       </c>
       <c r="Q61">
-        <v>0.009573234474382504</v>
+        <v>0.005659558653719858</v>
       </c>
     </row>
     <row r="62">
@@ -3754,49 +3754,49 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0.001664500696720148</v>
+        <v>0.000735785110008329</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1.691562630333458E-19</v>
       </c>
       <c r="E62">
-        <v>0.02980288767775233</v>
+        <v>0.02471932665899836</v>
       </c>
       <c r="F62">
-        <v>0.001156847983464602</v>
+        <v>0.0007575102187263831</v>
       </c>
       <c r="G62">
-        <v>0.005495075444863115</v>
+        <v>0.004330667707556254</v>
       </c>
       <c r="H62">
-        <v>0.01220860514866468</v>
+        <v>0.01147285896828019</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1.029580372308469E-18</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0.01028734636721722</v>
+        <v>0.009296564558132731</v>
       </c>
       <c r="L62">
-        <v>0.004316408860108578</v>
+        <v>0.004892241261215834</v>
       </c>
       <c r="M62">
-        <v>0.01619401877995181</v>
+        <v>0.01572788489632533</v>
       </c>
       <c r="N62">
-        <v>0.006230223603692582</v>
+        <v>0.005774292729889366</v>
       </c>
       <c r="O62">
-        <v>0.03531991564946739</v>
+        <v>0.03483549287649131</v>
       </c>
       <c r="P62">
-        <v>0.04223217775316166</v>
+        <v>0.04301989910205576</v>
       </c>
       <c r="Q62">
-        <v>0.02816216172067333</v>
+        <v>0.02791391288394608</v>
       </c>
     </row>
     <row r="63">
@@ -3806,52 +3806,52 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.02170318601835403</v>
+        <v>0.01100703155205739</v>
       </c>
       <c r="C63">
-        <v>4.205836963525033E-18</v>
+        <v>2.40381392001074E-19</v>
       </c>
       <c r="D63">
-        <v>0.02647097773599881</v>
+        <v>0.01849795901292904</v>
       </c>
       <c r="E63">
-        <v>7.872192816394962E-19</v>
+        <v>7.078940627802061E-19</v>
       </c>
       <c r="F63">
-        <v>0.212608442230989</v>
+        <v>0.1712618578497049</v>
       </c>
       <c r="G63">
-        <v>0.006690370399292154</v>
+        <v>0.001931169604011231</v>
       </c>
       <c r="H63">
-        <v>0.03871888926344533</v>
+        <v>0.03079701629213468</v>
       </c>
       <c r="I63">
-        <v>0.0987319644086056</v>
+        <v>0.07705566707123337</v>
       </c>
       <c r="J63">
-        <v>0.2269832575762541</v>
+        <v>0.1819378087997683</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>6.090979984376752E-18</v>
       </c>
       <c r="L63">
-        <v>0.1001077171599429</v>
+        <v>0.07709777648381221</v>
       </c>
       <c r="M63">
-        <v>0.02943994854066142</v>
+        <v>0.01932490588368924</v>
       </c>
       <c r="N63">
-        <v>0.01082334027606497</v>
+        <v>0.01205829771406595</v>
       </c>
       <c r="O63">
-        <v>1.087562674238264E-17</v>
+        <v>1.002339621790916E-18</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>6.656382200546617E-18</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>1.7472529818913E-19</v>
       </c>
     </row>
     <row r="64">
@@ -3861,52 +3861,52 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.001657995759298533</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1.175257908065021E-18</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>5.537796117838532E-20</v>
       </c>
       <c r="E64">
-        <v>1.388380106546276E-18</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.01912441120699586</v>
+        <v>0.007390751941166928</v>
       </c>
       <c r="G64">
-        <v>0.0008960582400005271</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3.518618110928492E-18</v>
       </c>
       <c r="I64">
-        <v>0.006592226300442501</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0.08798630556523601</v>
+        <v>0.04609681056929246</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0.0005331728366775245</v>
+        <v>1.230256576239134E-18</v>
       </c>
       <c r="M64">
-        <v>2.193780149694833E-18</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>2.107597286793602E-17</v>
+        <v>5.470436065742399E-18</v>
       </c>
       <c r="O64">
         <v>0</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1.820809428547261E-18</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>1.476258970717879E-18</v>
       </c>
     </row>
     <row r="65">
@@ -3916,49 +3916,49 @@
         </is>
       </c>
       <c r="B65">
-        <v>8.725900005554706E-18</v>
+        <v>5.103405205990999E-18</v>
       </c>
       <c r="C65">
-        <v>1.364457925585397E-18</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1.191830740167559E-18</v>
       </c>
       <c r="F65">
-        <v>0.04903035326375101</v>
+        <v>0.04112587985310032</v>
       </c>
       <c r="G65">
-        <v>0.001484015842024791</v>
+        <v>0.0005746785752209902</v>
       </c>
       <c r="H65">
-        <v>7.226103117090956E-18</v>
+        <v>6.673949738635479E-18</v>
       </c>
       <c r="I65">
-        <v>0.01577923520831897</v>
+        <v>0.0126746388856983</v>
       </c>
       <c r="J65">
-        <v>0.08295090425746678</v>
+        <v>0.07445465211718184</v>
       </c>
       <c r="K65">
-        <v>2.669147348817469E-17</v>
+        <v>1.639437044955659E-17</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>5.387983855973948E-18</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>9.218827935973238E-18</v>
       </c>
       <c r="O65">
-        <v>1.353707989784341E-17</v>
+        <v>1.047600158165439E-17</v>
       </c>
       <c r="P65">
-        <v>1.733730189525981E-17</v>
+        <v>1.872668540890155E-17</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -3971,52 +3971,52 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.2782972815891865</v>
+        <v>0.2496739287392976</v>
       </c>
       <c r="C66">
-        <v>0.01172818112780078</v>
+        <v>0.01338382546960477</v>
       </c>
       <c r="D66">
-        <v>0.2517180384088151</v>
+        <v>0.2277015221991933</v>
       </c>
       <c r="E66">
-        <v>1.198463597562937E-18</v>
+        <v>5.240266150022734E-18</v>
       </c>
       <c r="F66">
-        <v>0.7130111017449509</v>
+        <v>0.6426110710408238</v>
       </c>
       <c r="G66">
-        <v>0.08408108063249355</v>
+        <v>0.08173486102842434</v>
       </c>
       <c r="H66">
-        <v>0.1228134865480838</v>
+        <v>0.1114728448525937</v>
       </c>
       <c r="I66">
-        <v>0.4377082679977947</v>
+        <v>0.3975228455129229</v>
       </c>
       <c r="J66">
-        <v>0.864086657351861</v>
+        <v>0.7754840533818518</v>
       </c>
       <c r="K66">
-        <v>2.99901642265088E-17</v>
+        <v>3.707862510570557E-17</v>
       </c>
       <c r="L66">
-        <v>0.4023661097349777</v>
+        <v>0.3611220980604199</v>
       </c>
       <c r="M66">
-        <v>0.05866248127951251</v>
+        <v>0.05949246367073929</v>
       </c>
       <c r="N66">
-        <v>0.03683175589896082</v>
+        <v>0.03487029606443465</v>
       </c>
       <c r="O66">
-        <v>6.111219322913334E-18</v>
+        <v>8.398502304134337E-18</v>
       </c>
       <c r="P66">
-        <v>1.096951678362641E-17</v>
+        <v>4.10359334579679E-18</v>
       </c>
       <c r="Q66">
-        <v>0.00311803818255969</v>
+        <v>0.002690047005846205</v>
       </c>
     </row>
     <row r="67">
@@ -4026,52 +4026,52 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.008721529822614068</v>
+        <v>0.007461755959541997</v>
       </c>
       <c r="C67">
-        <v>0.01477794644950497</v>
+        <v>0.01268448334971504</v>
       </c>
       <c r="D67">
-        <v>0.007936469264880147</v>
+        <v>0.006965105877733834</v>
       </c>
       <c r="E67">
-        <v>0.02993140490529578</v>
+        <v>0.02561157984579371</v>
       </c>
       <c r="F67">
-        <v>0.004881092528888621</v>
+        <v>0.004067621694869107</v>
       </c>
       <c r="G67">
-        <v>0.01060003489392427</v>
+        <v>0.009032200464180105</v>
       </c>
       <c r="H67">
-        <v>0.05137305536925315</v>
+        <v>0.0432633797021386</v>
       </c>
       <c r="I67">
-        <v>0.007098509275211572</v>
+        <v>0.005610697280052379</v>
       </c>
       <c r="J67">
-        <v>1.481038670504686E-19</v>
+        <v>1.405559154652907E-20</v>
       </c>
       <c r="K67">
-        <v>0.02088427916424666</v>
+        <v>0.01761286273656548</v>
       </c>
       <c r="L67">
-        <v>0.0176519651174247</v>
+        <v>0.0191952544738884</v>
       </c>
       <c r="M67">
-        <v>0.03364208444845056</v>
+        <v>0.03237951165788197</v>
       </c>
       <c r="N67">
-        <v>0.01619158148508654</v>
+        <v>0.01421311928664556</v>
       </c>
       <c r="O67">
-        <v>0.09415352962845888</v>
+        <v>0.08273840340167707</v>
       </c>
       <c r="P67">
-        <v>0.08239580651366044</v>
+        <v>0.07507480905044353</v>
       </c>
       <c r="Q67">
-        <v>0.02388096194173222</v>
+        <v>0.02047809723736022</v>
       </c>
     </row>
     <row r="68">
@@ -4081,52 +4081,52 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.2870188114118006</v>
+        <v>0.2571356846988396</v>
       </c>
       <c r="C68">
-        <v>0.02650612757730575</v>
+        <v>0.02606830881931981</v>
       </c>
       <c r="D68">
-        <v>0.2596545076736952</v>
+        <v>0.2346666280769271</v>
       </c>
       <c r="E68">
-        <v>0.02993140490529578</v>
+        <v>0.02561157984579372</v>
       </c>
       <c r="F68">
-        <v>0.7178921942738394</v>
+        <v>0.6466786927356929</v>
       </c>
       <c r="G68">
-        <v>0.09468111552641781</v>
+        <v>0.09076706149260444</v>
       </c>
       <c r="H68">
-        <v>0.1741865419173369</v>
+        <v>0.1547362245547323</v>
       </c>
       <c r="I68">
-        <v>0.4448067772730062</v>
+        <v>0.4031335427929753</v>
       </c>
       <c r="J68">
-        <v>0.864086657351861</v>
+        <v>0.7754840533818518</v>
       </c>
       <c r="K68">
-        <v>0.02088427916424669</v>
+        <v>0.01761286273656551</v>
       </c>
       <c r="L68">
-        <v>0.4200180748524024</v>
+        <v>0.3803173525343083</v>
       </c>
       <c r="M68">
-        <v>0.09230456572796307</v>
+        <v>0.09187197532862126</v>
       </c>
       <c r="N68">
-        <v>0.05302333738404735</v>
+        <v>0.0490834153510802</v>
       </c>
       <c r="O68">
-        <v>0.09415352962845888</v>
+        <v>0.08273840340167708</v>
       </c>
       <c r="P68">
-        <v>0.08239580651366045</v>
+        <v>0.07507480905044353</v>
       </c>
       <c r="Q68">
-        <v>0.02699900012429191</v>
+        <v>0.02316814424320642</v>
       </c>
     </row>
   </sheetData>
